--- a/SourceFiles/Vikhanasa_Directory.xlsx
+++ b/SourceFiles/Vikhanasa_Directory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="23000" windowHeight="10050"/>
+    <workbookView xWindow="480" yWindow="36" windowWidth="23004" windowHeight="10056"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="815">
   <si>
     <t>Sno</t>
   </si>
@@ -144,9 +144,6 @@
     <t>pattabhi.g@mahindra.com</t>
   </si>
   <si>
-    <t>404, dhurvani apartment, telephone colony, road no:1, kothapet</t>
-  </si>
-  <si>
     <t>Mahindra &amp; mahindra</t>
   </si>
   <si>
@@ -264,15 +261,9 @@
     <t>dndv2011@yahoo.com</t>
   </si>
   <si>
-    <t>plot no:10-50, flat no:114, new gayatri nagar colony, jillelaguda</t>
-  </si>
-  <si>
     <t>public relation officer</t>
   </si>
   <si>
-    <t>Deevi Sreeni Vasa Murthy</t>
-  </si>
-  <si>
     <t>murti.deevi@gmail.com</t>
   </si>
   <si>
@@ -348,9 +339,6 @@
     <t>satyanarayanacharyulupeddinti@gmail.com</t>
   </si>
   <si>
-    <t>alwal, surya nagar</t>
-  </si>
-  <si>
     <t>private employee laurus labs</t>
   </si>
   <si>
@@ -1275,9 +1263,6 @@
     <t>Yendamuru, East Godavari</t>
   </si>
   <si>
-    <t>plot no:130,V R R Enclave, dammmaiguda, secunderabad 500083</t>
-  </si>
-  <si>
     <t>Analytical head(clearsynth laboratories)</t>
   </si>
   <si>
@@ -1761,9 +1746,6 @@
     <t>Plot#174, Hno#10-16, Street #8, HMT Nagar, Nacharam, Hyderabad 500076</t>
   </si>
   <si>
-    <t>S Subhadra Charyulul</t>
-  </si>
-  <si>
     <t>Ravipadu, Tadepalligudem</t>
   </si>
   <si>
@@ -2110,6 +2092,375 @@
   </si>
   <si>
     <t>sricharan87@gmail.com</t>
+  </si>
+  <si>
+    <t>Chivaluri Gopinath</t>
+  </si>
+  <si>
+    <t>Late. Chivaluri RangaCharyulu</t>
+  </si>
+  <si>
+    <t>chivaluri_g@yahoo.com</t>
+  </si>
+  <si>
+    <t>Hno. 1-7-139/73, SRK Nagar, Musheerabad, Hyderabad-500020</t>
+  </si>
+  <si>
+    <t>Accounting Freelancer</t>
+  </si>
+  <si>
+    <t>Late. Deevi Narayana Charyulu</t>
+  </si>
+  <si>
+    <t>Avanigadda</t>
+  </si>
+  <si>
+    <t>Dr. S V RangaCharyulu</t>
+  </si>
+  <si>
+    <t>2-4-226, Road#9A, Behind Community Hall, Snehapuri Colony, Hyderabad-500102</t>
+  </si>
+  <si>
+    <t>Flat#201, Eternal Towers, Road No 7, Telephone Colony, Kothapet, Hyderabad-500102</t>
+  </si>
+  <si>
+    <t>Vedantam Giri Vara Prasad</t>
+  </si>
+  <si>
+    <t>Vedantam Suchetram</t>
+  </si>
+  <si>
+    <t>G4, Sri Sai Residency, Radha Krishna Society, Borabanda, Hyderabad-500018</t>
+  </si>
+  <si>
+    <t>Rompicherla Srinivasa Deekshitulu</t>
+  </si>
+  <si>
+    <t>Rompicherla Manga Charyulu</t>
+  </si>
+  <si>
+    <t>Plot No 47, HNO 13-118/1/1, Sanjay Nagar, Malkajgiri, Hyderabad-500047</t>
+  </si>
+  <si>
+    <t>040-27052806</t>
+  </si>
+  <si>
+    <t>Sudarsanam Vamsi Kiran Kumar</t>
+  </si>
+  <si>
+    <t>Sudarsanam V S Acharyulu</t>
+  </si>
+  <si>
+    <t>HNO 2-90, Plot No 175, Vijayapuri Residency, Joodimetla, Ghatkesar, RR Dist - 500088</t>
+  </si>
+  <si>
+    <t>Deevi Sreenivasa Murthy</t>
+  </si>
+  <si>
+    <t>Deevi Sriranga Acharyulu</t>
+  </si>
+  <si>
+    <t>plot no:10-50, flat no:114, new gayatri nagar colony, Jillelaguda, Balapur (m), Hyderabad-500097</t>
+  </si>
+  <si>
+    <t>Addepalli Srinivasa Acharyulu</t>
+  </si>
+  <si>
+    <t>Addepalli Pavan Kumar</t>
+  </si>
+  <si>
+    <t>HNO 1-2-1/73, Siva Sai Nagar Colony, Budwel, RajendraNagar, Hyderabad-500030</t>
+  </si>
+  <si>
+    <t>G M B Sarat Kumar</t>
+  </si>
+  <si>
+    <t>HNO 5-9-278/11, Rock garden, Yapral, Hyderabad-500087</t>
+  </si>
+  <si>
+    <t>kumargmbs@gmail.com</t>
+  </si>
+  <si>
+    <t>Kidambi Srinivasa Jayadev</t>
+  </si>
+  <si>
+    <t>jaykidambi@gmail.com</t>
+  </si>
+  <si>
+    <t>D-402, D Block, Jai Hind Valley, Manikonda, Beside Delhi Public Of Excellence, Hyderabad-500089</t>
+  </si>
+  <si>
+    <t>Agnihotram Ramanand</t>
+  </si>
+  <si>
+    <t>Late Agnihotram Appalacharyulu</t>
+  </si>
+  <si>
+    <t>ram_agni@hotmail.com</t>
+  </si>
+  <si>
+    <t>Flat no 406, A Block, Manjeera diamond towers, Gopanpally, Nallagandla, Hyderabad</t>
+  </si>
+  <si>
+    <t>Deevi Madhusudhana Prasad (DMS Prasad)</t>
+  </si>
+  <si>
+    <t>dmsp_1954@yahoo.com</t>
+  </si>
+  <si>
+    <t>Flat no 402, Sidhartha Residency, Rajiv Gandhi Nagar, Near Jayadeepika Estates, Bachupally, Hyderabad-500090</t>
+  </si>
+  <si>
+    <t>Vedantam RadhaKrishnama Charyulu</t>
+  </si>
+  <si>
+    <t>vrk.acharyulu@gmail.com</t>
+  </si>
+  <si>
+    <t>B-324, Mayflower heights, opp. Noma Talkies, Mallapur, Hyderabad-500076</t>
+  </si>
+  <si>
+    <t>Ganjam Ramesh Babu</t>
+  </si>
+  <si>
+    <t>rameshganjam@gmail.com</t>
+  </si>
+  <si>
+    <t>H-292, Site-1, NRR Puram Colony, Borabanda, Hyderabad-500018</t>
+  </si>
+  <si>
+    <t>Ganjam Venkata Seshacharyulu</t>
+  </si>
+  <si>
+    <t>Parasaram Alahari SingaraCharyulu</t>
+  </si>
+  <si>
+    <t>B-Block, Flat no 302, May Flower Park Apartment, Mallapur, Hyderabad-500076</t>
+  </si>
+  <si>
+    <t>Dopallapudi, Guntur(dt)</t>
+  </si>
+  <si>
+    <t>Gudipudi SeethaRamaCharyulu</t>
+  </si>
+  <si>
+    <t>6-7-609/140/A, Flat no 102, Annapurna Endure, AnandNagar, Khairtabad, Hyderabad</t>
+  </si>
+  <si>
+    <t>Rompicherla Gopala Krishna Mohan</t>
+  </si>
+  <si>
+    <t>gopala.rompicherla@kotak.com</t>
+  </si>
+  <si>
+    <t>2-2-1133/4, New Nallakunta, Hyderabad-500044</t>
+  </si>
+  <si>
+    <t>Gudipudi Kodandaram</t>
+  </si>
+  <si>
+    <t>kodandaramg@gmail.com</t>
+  </si>
+  <si>
+    <t>E-103, Ceabros, 13-Elvedere, Sholinganallur, Chennai-600119</t>
+  </si>
+  <si>
+    <t>Gudipudi SrinivasaCharyulu</t>
+  </si>
+  <si>
+    <t>Gudipudi Aravind Ramu</t>
+  </si>
+  <si>
+    <t>aravindramug30@gmail.com</t>
+  </si>
+  <si>
+    <t>Flat no 108, Maple heights, Saket, Kapra, Hyderabad-500062</t>
+  </si>
+  <si>
+    <t>Ganjam Venkata LakshmiNarayana Charyulu</t>
+  </si>
+  <si>
+    <t>040-27222112</t>
+  </si>
+  <si>
+    <t>Srinivasula Subhadra Charyulu</t>
+  </si>
+  <si>
+    <t>V S Murali</t>
+  </si>
+  <si>
+    <t>3-7-3, Street no 1, Nalanda Nager, Hyderguda, Attapur-500048</t>
+  </si>
+  <si>
+    <t>Dr. Meduri Venkata Vijaya Saradhi</t>
+  </si>
+  <si>
+    <t>HNO 5-3/34/73, CCMB Colony, Boduppal, Hyderabad-500092</t>
+  </si>
+  <si>
+    <t>meduri.vsd@gmail.com</t>
+  </si>
+  <si>
+    <t>P RanganathaCharyulu</t>
+  </si>
+  <si>
+    <t>Plot no 113, Saipuri, Sainikpuri, Secunderabad-500094</t>
+  </si>
+  <si>
+    <t>Vadapally SridharaCharyulu</t>
+  </si>
+  <si>
+    <t>Vijaya VenkateswaraSwamy Temple, Samskuti Engineering College, Ghatkesar</t>
+  </si>
+  <si>
+    <t>Bellampudi, Gannavaram, E.Godavari</t>
+  </si>
+  <si>
+    <t>Khandavilli Anantha Srikar</t>
+  </si>
+  <si>
+    <t>K A N Acharyulu</t>
+  </si>
+  <si>
+    <t>srikar.bma@gmail.com</t>
+  </si>
+  <si>
+    <t>Plot no 28, Pragathi Nagar, Mansoorabad, Vanasthalipuram, Hyderabad-500028</t>
+  </si>
+  <si>
+    <t>Sribhashyam Anjaneyulu</t>
+  </si>
+  <si>
+    <t>S Lakshmana Charyulu</t>
+  </si>
+  <si>
+    <t>5-5-287, Prashant Nagar, Vanasthalipuram, Hyderabad-500070</t>
+  </si>
+  <si>
+    <t>P GopalaCharyulu</t>
+  </si>
+  <si>
+    <t>Yedidha, East Godavari</t>
+  </si>
+  <si>
+    <t>Hno. 1-95/A/7, VeeraReddy Nagar, Boduppal, Hyderabad-500092</t>
+  </si>
+  <si>
+    <t>1-5-507/1/1, plot no. 83, Srinilayam, Surya Nagar, Old Alwal, Hyderabad</t>
+  </si>
+  <si>
+    <t>Golakotivari palem, Kothapeta Mandalam</t>
+  </si>
+  <si>
+    <t>Nalluri Srimannarayana Charyulu</t>
+  </si>
+  <si>
+    <t>Late N Pardhasaradhi Charyulu</t>
+  </si>
+  <si>
+    <t>srimannarayana_n@yahoo.com</t>
+  </si>
+  <si>
+    <t>Cherukuru, Parachuru Mandal, Prakasam district</t>
+  </si>
+  <si>
+    <t>Hno. 41-125/28/A, East Pragathi Nagar, Moulali, Hyderabad-500040</t>
+  </si>
+  <si>
+    <t>Vedantham Srinivasa Pavan Kumar</t>
+  </si>
+  <si>
+    <t>V L K S S BhattaCharyulu</t>
+  </si>
+  <si>
+    <t>pavansrinivas@gmail.com</t>
+  </si>
+  <si>
+    <t>Tenali, Guntur</t>
+  </si>
+  <si>
+    <t>Flat no. 206, B-Block, MytriHomes, Madinaguda, Miyapur, Hyderabad-500049</t>
+  </si>
+  <si>
+    <t>plot no:130, Road No 7, V R R Enclave, dammmaiguda, secunderabad 500083</t>
+  </si>
+  <si>
+    <t>Rompicherla Mohana Gopala Krishnamacharyulu</t>
+  </si>
+  <si>
+    <t>040-27031918</t>
+  </si>
+  <si>
+    <t>rmgkacharyulu@gmail.com</t>
+  </si>
+  <si>
+    <t>3-10-102/A/2, Gokhale Nagar, Ramanthapuram, Hyderabad-500013</t>
+  </si>
+  <si>
+    <t>Ganjam Neela Anantha ParthaSaradhi Deekshitulu</t>
+  </si>
+  <si>
+    <t>G Srinivasa Charyulu</t>
+  </si>
+  <si>
+    <t>Hno. 5-12-186/3, APHB Colony, Hyderabad-500840</t>
+  </si>
+  <si>
+    <t>Rakuditi Venkata Prasad</t>
+  </si>
+  <si>
+    <t>MN Reddy Nagar, Near Bank Colony, Hyderabad-500067</t>
+  </si>
+  <si>
+    <t>Peddinti SatyaRamesh</t>
+  </si>
+  <si>
+    <t>Plot No. 136, Bank Colony, Road no. 7, Suchitra Circle, Qutbullapur Mandal, Hyderabad - 500067</t>
+  </si>
+  <si>
+    <t>psramesh2864@yahoo.com</t>
+  </si>
+  <si>
+    <t>Angara VenkataCharyulu</t>
+  </si>
+  <si>
+    <t>av_charyulu@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>Plot no. 50, Hno. 6-204/6, Boudha Nagar Colony, Suchitra Circle post, Hyderabad - 500067</t>
+  </si>
+  <si>
+    <t>B RadhaKrishnamaCharyulu</t>
+  </si>
+  <si>
+    <t>Flat no. 103, Road no. 14, Sardar Patel nagar, Nijampet, Hyderabad - 500085</t>
+  </si>
+  <si>
+    <t>B Venkata Charyulu</t>
+  </si>
+  <si>
+    <t>Jegurupadu, Kadium mandal</t>
+  </si>
+  <si>
+    <t>P Pundarikaksha ayyengar</t>
+  </si>
+  <si>
+    <t>Gachibowli, Hyderabad</t>
+  </si>
+  <si>
+    <t>Chakravartula Sreenivas</t>
+  </si>
+  <si>
+    <t>Street no. 4, Bhavani Nagar, Nacharam</t>
+  </si>
+  <si>
+    <t>Devayajanam RamakrishnamaCharyulu</t>
+  </si>
+  <si>
+    <t>venkatsai.209@gmail.com</t>
+  </si>
+  <si>
+    <t>Kothapet, Hyderabad</t>
   </si>
 </sst>
 </file>
@@ -2168,7 +2519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2206,6 +2557,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2222,7 +2576,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2278,8 +2632,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K160" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K160"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K196" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K196"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Sno" dataDxfId="10"/>
     <tableColumn id="2" name="Name" dataDxfId="9"/>
@@ -2584,25 +2938,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:K196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="35.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" customWidth="1"/>
-    <col min="9" max="9" width="55.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.81640625" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -2613,22 +2967,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -2637,113 +2991,113 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F2" s="11">
         <v>9177186186</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>344</v>
+        <v>288</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>340</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F3" s="11">
         <v>9959933822</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="H3" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>348</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="11">
         <v>8097683892</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>344</v>
+        <v>292</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>340</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2751,10 +3105,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="11">
@@ -2763,8 +3117,8 @@
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>392</v>
+      <c r="H5" s="15" t="s">
+        <v>388</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>17</v>
@@ -2773,21 +3127,21 @@
         <v>20</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="11">
@@ -2796,20 +3150,20 @@
       <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>391</v>
+      <c r="H6" s="15" t="s">
+        <v>387</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2818,17 +3172,17 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="11">
         <v>9441159828</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>393</v>
+        <v>45</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>389</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>9</v>
@@ -2838,21 +3192,21 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F8" s="11">
         <v>9550251037</v>
@@ -2860,8 +3214,8 @@
       <c r="G8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>344</v>
+      <c r="H8" s="15" t="s">
+        <v>340</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>9</v>
@@ -2870,29 +3224,29 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="11">
         <v>9490975577</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>394</v>
+        <v>46</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>390</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>12</v>
@@ -2902,41 +3256,41 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="11">
         <v>9849944225</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="11">
@@ -2945,7 +3299,7 @@
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="3" t="s">
         <v>32</v>
       </c>
@@ -2954,12 +3308,12 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2968,47 +3322,47 @@
         <v>9492827299</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F13" s="11">
         <v>9949042216</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>523</v>
+        <v>70</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>518</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3024,21 +3378,21 @@
       <c r="G14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3049,7 +3403,7 @@
       <c r="G15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="3" t="s">
         <v>38</v>
       </c>
@@ -3058,12 +3412,12 @@
       </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3072,12 +3426,12 @@
         <v>9298109637</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3091,29 +3445,29 @@
         <v>9866956218</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H17" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="H17" s="15"/>
       <c r="I17" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="11">
@@ -3122,7 +3476,7 @@
       <c r="G18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="3" t="s">
         <v>17</v>
       </c>
@@ -3130,15 +3484,15 @@
         <v>18</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3147,21 +3501,21 @@
         <v>9441338385</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3170,17 +3524,17 @@
         <v>9908698530</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3191,21 +3545,21 @@
       <c r="G21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3216,7 +3570,7 @@
       <c r="G22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="3" t="s">
         <v>26</v>
       </c>
@@ -3225,12 +3579,12 @@
       </c>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3241,7 +3595,7 @@
       <c r="G23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="3" t="s">
         <v>28</v>
       </c>
@@ -3250,7 +3604,7 @@
       </c>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3260,14 +3614,14 @@
       <c r="E24" s="2"/>
       <c r="F24" s="11"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3275,13 +3629,13 @@
         <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F25" s="11">
         <v>9441163033</v>
@@ -3289,58 +3643,58 @@
       <c r="G25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>476</v>
+      <c r="H25" s="15" t="s">
+        <v>471</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="11" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>476</v>
+      <c r="H26" s="15" t="s">
+        <v>471</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3351,21 +3705,21 @@
       <c r="G27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="15"/>
       <c r="I27" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3374,25 +3728,25 @@
         <v>9290492262</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3401,46 +3755,46 @@
         <v>9949984380</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F30" s="11">
         <v>9010292850</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3449,21 +3803,21 @@
         <v>8413232230</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3472,50 +3826,50 @@
         <v>7729958899</v>
       </c>
       <c r="G32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="11">
         <v>8008994192</v>
       </c>
       <c r="G33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3524,23 +3878,23 @@
         <v>9440538429</v>
       </c>
       <c r="G34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3549,21 +3903,21 @@
         <v>9441286732</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="H35" s="3"/>
       <c r="I35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3572,42 +3926,42 @@
         <v>9494871142</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="11"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="H37" s="3"/>
       <c r="I37" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3616,23 +3970,23 @@
         <v>9440759462</v>
       </c>
       <c r="G38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3641,23 +3995,23 @@
         <v>9849519396</v>
       </c>
       <c r="G39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3666,23 +4020,23 @@
         <v>9848394770</v>
       </c>
       <c r="G40" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3691,23 +4045,23 @@
         <v>9912411898</v>
       </c>
       <c r="G41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="J41" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -3716,23 +4070,23 @@
         <v>9550578130</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H42" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="H42" s="15"/>
       <c r="I42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3741,23 +4095,23 @@
         <v>9908118530</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H43" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="H43" s="15"/>
       <c r="I43" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3766,100 +4120,110 @@
         <v>9963333307</v>
       </c>
       <c r="G44" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="11">
         <v>9959677000</v>
       </c>
       <c r="G45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+        <v>712</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="11">
         <v>9908313870</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H46" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>698</v>
+      </c>
       <c r="I46" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="11">
         <v>9290001885</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H47" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="H47" s="15"/>
       <c r="I47" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -3868,23 +4232,23 @@
         <v>9866550550</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H48" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="H48" s="15"/>
       <c r="I48" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -3893,23 +4257,23 @@
         <v>9000266111</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H49" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="H49" s="15"/>
       <c r="I49" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -3918,23 +4282,23 @@
         <v>9966765404</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H50" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="H50" s="15"/>
       <c r="I50" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -3943,21 +4307,21 @@
         <v>9849386284</v>
       </c>
       <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="H51" s="3"/>
       <c r="I51" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -3966,23 +4330,23 @@
         <v>7799908080</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H52" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="H52" s="15"/>
       <c r="I52" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -3991,21 +4355,21 @@
         <v>9849857379</v>
       </c>
       <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="H53" s="3"/>
       <c r="I53" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -4014,56 +4378,56 @@
         <v>9493064455</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H54" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="H54" s="15"/>
       <c r="I54" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F55" s="11">
         <v>9441512376</v>
       </c>
       <c r="G55" s="2"/>
-      <c r="H55" s="2" t="s">
-        <v>423</v>
+      <c r="H55" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -4072,104 +4436,108 @@
         <v>9963149724</v>
       </c>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="H56" s="3"/>
       <c r="I56" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="11">
         <v>9441110078</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H57" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>777</v>
+      </c>
       <c r="I57" s="3" t="s">
-        <v>110</v>
+        <v>776</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="11">
         <v>9000900812</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>391</v>
+        <v>108</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>387</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F59" s="11">
         <v>8978135579</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="H59" s="3"/>
       <c r="I59" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -4178,73 +4546,73 @@
         <v>9346942113</v>
       </c>
       <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="H60" s="3"/>
       <c r="I60" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="11">
         <v>9441544107</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H61" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="H61" s="15"/>
       <c r="I61" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="11">
         <v>9866536310</v>
       </c>
       <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="H62" s="3"/>
       <c r="I62" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -4253,23 +4621,23 @@
         <v>9030051144</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H63" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="H63" s="15"/>
       <c r="I63" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -4278,23 +4646,23 @@
         <v>9391033377</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H64" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="H64" s="15"/>
       <c r="I64" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -4303,145 +4671,149 @@
         <v>9848040718</v>
       </c>
       <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="H65" s="3"/>
       <c r="I65" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>754</v>
+      </c>
       <c r="F66" s="11">
         <v>9440916984</v>
       </c>
       <c r="G66" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H66" s="4"/>
-      <c r="I66" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="11">
         <v>9912562762</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>409</v>
+        <v>133</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>405</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="11">
         <v>9908898776</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>409</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="H68" s="15"/>
       <c r="I68" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>581</v>
+        <v>755</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="11">
         <v>7799882826</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>582</v>
+        <v>142</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>576</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -4450,79 +4822,81 @@
         <v>9849172168</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H70" s="4"/>
+        <v>145</v>
+      </c>
+      <c r="H70" s="15"/>
       <c r="I70" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="11">
         <v>9963886731</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>512</v>
+        <v>167</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>507</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="D72" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="E72" s="2"/>
       <c r="F72" s="11">
         <v>9848741492</v>
       </c>
       <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+      <c r="H72" s="3"/>
       <c r="I72" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -4531,23 +4905,23 @@
         <v>90300079747</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H73" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="H73" s="15"/>
       <c r="I73" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -4556,21 +4930,21 @@
         <v>9392416537</v>
       </c>
       <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="H74" s="3"/>
       <c r="I74" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -4579,21 +4953,21 @@
         <v>9849274633</v>
       </c>
       <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="H75" s="3"/>
       <c r="I75" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -4602,56 +4976,56 @@
         <v>9908229269</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H76" s="5"/>
+        <v>165</v>
+      </c>
+      <c r="H76" s="14"/>
       <c r="I76" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="11">
         <v>9966031467</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>418</v>
+        <v>161</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>414</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>419</v>
+        <v>788</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -4660,23 +5034,23 @@
         <v>9492224449</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H78" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="H78" s="15"/>
       <c r="I78" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -4685,23 +5059,23 @@
         <v>9849215886</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H79" s="4"/>
+        <v>168</v>
+      </c>
+      <c r="H79" s="15"/>
       <c r="I79" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J79" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J79" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -4710,23 +5084,23 @@
         <v>9866757274</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H80" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="H80" s="15"/>
       <c r="I80" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -4735,73 +5109,77 @@
         <v>9700199619</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H81" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="H81" s="15"/>
       <c r="I81" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+      <c r="D82" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="E82" s="2"/>
       <c r="F82" s="11">
         <v>9502140219</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H82" s="4"/>
+        <v>177</v>
+      </c>
+      <c r="H82" s="15"/>
       <c r="I82" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="D83" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="E83" s="2"/>
       <c r="F83" s="11">
         <v>9848131772</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H83" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="H83" s="15"/>
       <c r="I83" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -4810,21 +5188,21 @@
         <v>9848452505</v>
       </c>
       <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+      <c r="H84" s="3"/>
       <c r="I84" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -4833,83 +5211,85 @@
         <v>9618096969</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H85" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="H85" s="15"/>
       <c r="I85" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F86" s="11">
         <v>9492873235</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>614</v>
+        <v>187</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>608</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="D87" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="E87" s="2"/>
       <c r="F87" s="11">
         <v>9440797630</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H87" s="4"/>
+        <v>189</v>
+      </c>
+      <c r="H87" s="15"/>
       <c r="I87" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -4918,23 +5298,23 @@
         <v>9441232022</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H88" s="4"/>
+        <v>193</v>
+      </c>
+      <c r="H88" s="15"/>
       <c r="I88" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -4943,23 +5323,23 @@
         <v>9000500954</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H89" s="4"/>
+        <v>197</v>
+      </c>
+      <c r="H89" s="15"/>
       <c r="I89" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -4968,21 +5348,21 @@
         <v>9030859264</v>
       </c>
       <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
+      <c r="H90" s="3"/>
       <c r="I90" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -4991,143 +5371,143 @@
         <v>9700453665</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H91" s="4"/>
+        <v>201</v>
+      </c>
+      <c r="H91" s="15"/>
       <c r="I91" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="11">
         <v>9849857379</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>498</v>
+        <v>201</v>
+      </c>
+      <c r="H92" s="15" t="s">
+        <v>493</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="11">
         <v>9640660567</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>426</v>
+        <v>206</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>421</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="11">
         <v>9885304787</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H94" s="4"/>
+        <v>211</v>
+      </c>
+      <c r="H94" s="15"/>
       <c r="I94" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="11">
         <v>9246533667</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H95" s="4"/>
+        <v>215</v>
+      </c>
+      <c r="H95" s="15"/>
       <c r="I95" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -5136,100 +5516,100 @@
         <v>9491442862</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H96" s="4"/>
+        <v>217</v>
+      </c>
+      <c r="H96" s="15"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="11">
         <v>9440884872</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H97" s="4"/>
+        <v>220</v>
+      </c>
+      <c r="H97" s="15"/>
       <c r="I97" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="11">
         <v>9490214749</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H98" s="4"/>
+        <v>223</v>
+      </c>
+      <c r="H98" s="15"/>
       <c r="I98" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="11">
         <v>9848438028</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H99" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="H99" s="15"/>
       <c r="I99" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="1:11" ht="192" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -5238,23 +5618,23 @@
         <v>9396666003</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="H100" s="4"/>
+        <v>295</v>
+      </c>
+      <c r="H100" s="15"/>
       <c r="I100" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:11" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="2"/>
@@ -5263,23 +5643,23 @@
         <v>9848409255</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="H101" s="5"/>
+        <v>299</v>
+      </c>
+      <c r="H101" s="14"/>
       <c r="I101" s="8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -5288,125 +5668,125 @@
         <v>9849713493</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="H102" s="5"/>
+        <v>303</v>
+      </c>
+      <c r="H102" s="14"/>
       <c r="I102" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J102" s="3"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="11">
         <v>9440337982</v>
       </c>
       <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
+      <c r="H103" s="3"/>
       <c r="I103" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="11">
         <v>9493172118</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H104" s="4"/>
+        <v>310</v>
+      </c>
+      <c r="H104" s="15"/>
       <c r="I104" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="11">
         <v>9441892021</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="H105" s="4"/>
+        <v>313</v>
+      </c>
+      <c r="H105" s="15"/>
       <c r="I105" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="11">
         <v>9755092823</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="H106" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="H106" s="3"/>
       <c r="I106" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -5415,82 +5795,82 @@
         <v>9770287447</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="11">
         <v>9441263195</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="H108" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="11">
         <v>9989189267</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -5498,702 +5878,702 @@
         <v>6309061844</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="H110" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="H110" s="3"/>
       <c r="I110" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F111" s="11">
         <v>9949644491</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F112" s="11">
         <v>9866706017</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="11">
         <v>9490880839</v>
       </c>
       <c r="G113" s="2"/>
-      <c r="H113" s="2" t="s">
-        <v>336</v>
+      <c r="H113" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="11">
         <v>9601396467</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>336</v>
+        <v>362</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F115" s="11">
         <v>9491208676</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>336</v>
+        <v>371</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="11">
         <v>9030249124</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>336</v>
+        <v>372</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="11">
         <v>9849711427</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>377</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="11">
         <v>9849426447</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="11">
         <v>9849867152</v>
       </c>
       <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
+      <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F120" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="G120" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="I120" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>400</v>
-      </c>
       <c r="J120" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F121" s="11">
         <v>9490214749</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>405</v>
+        <v>223</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F122" s="11">
         <v>9701009082</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F123" s="11">
         <v>9440697279</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>391</v>
+        <v>440</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="11">
         <v>9440660598</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>450</v>
+        <v>444</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>445</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="11">
         <v>9989805918</v>
       </c>
       <c r="G125" s="2"/>
-      <c r="H125" s="2" t="s">
-        <v>455</v>
+      <c r="H125" s="3" t="s">
+        <v>450</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F126" s="11">
         <v>9441661935</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F127" s="11">
         <v>9441234565</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>423</v>
+        <v>461</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F128" s="11">
         <v>9440000911</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>423</v>
+        <v>465</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="11">
         <v>9490192536</v>
       </c>
       <c r="G129" s="2"/>
-      <c r="H129" s="2" t="s">
-        <v>482</v>
+      <c r="H129" s="3" t="s">
+        <v>477</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F130" s="11">
         <v>9177608102</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>482</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="11">
         <v>9391478825</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E132" s="2">
         <v>8829255369</v>
@@ -6202,900 +6582,1774 @@
         <v>9296101069</v>
       </c>
       <c r="G132" s="2"/>
-      <c r="H132" s="2" t="s">
-        <v>492</v>
+      <c r="H132" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="11">
         <v>9848415483</v>
       </c>
       <c r="G133" s="2"/>
-      <c r="H133" s="2" t="s">
-        <v>500</v>
+      <c r="H133" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F134" s="11">
         <v>9177902555</v>
       </c>
       <c r="G134" s="2"/>
-      <c r="H134" s="2" t="s">
-        <v>506</v>
+      <c r="H134" s="3" t="s">
+        <v>501</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="11">
         <v>9500004241</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>482</v>
+        <v>505</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>477</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="11">
         <v>9866352054</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>514</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F137" s="11">
         <v>9959544417</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>524</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F138" s="11">
         <v>9490021373</v>
       </c>
       <c r="G138" s="2"/>
-      <c r="H138" s="2" t="s">
-        <v>529</v>
+      <c r="H138" s="3" t="s">
+        <v>524</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="11">
         <v>7207543226</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="H139" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="H139" s="3"/>
       <c r="I139" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F140" s="11">
         <v>9494250277</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>541</v>
+        <v>535</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F141" s="11">
         <v>9440400880</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>529</v>
+        <v>540</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>524</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F142" s="11">
         <v>8985980905</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>547</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="11">
         <v>9908114596</v>
       </c>
       <c r="G143" s="2"/>
-      <c r="H143" s="2" t="s">
-        <v>570</v>
+      <c r="H143" s="3" t="s">
+        <v>565</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="11">
         <v>9959616758</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>555</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="11">
         <v>9299004951</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>409</v>
+        <v>560</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="11">
         <v>9949650929</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>565</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="F147" s="11">
         <v>8886592727</v>
       </c>
       <c r="G147" s="2"/>
-      <c r="H147" s="2" t="s">
-        <v>575</v>
+      <c r="H147" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="11">
         <v>9848239478</v>
       </c>
       <c r="G148" s="2"/>
-      <c r="H148" s="2" t="s">
-        <v>579</v>
+      <c r="H148" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="11">
         <v>9848230154</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>586</v>
+        <v>579</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>580</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="11" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>593</v>
+        <v>586</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>587</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="11" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G151" s="2"/>
-      <c r="H151" s="2" t="s">
-        <v>599</v>
+      <c r="H151" s="3" t="s">
+        <v>593</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="11">
         <v>9490682940</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>355</v>
+        <v>597</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="F153" s="11">
         <v>9701193007</v>
       </c>
       <c r="G153" s="2"/>
-      <c r="H153" s="2" t="s">
-        <v>609</v>
+      <c r="H153" s="3" t="s">
+        <v>603</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C154" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="11">
         <v>9866435959</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="H154" s="2"/>
+        <v>668</v>
+      </c>
+      <c r="H154" s="3"/>
       <c r="I154" s="14" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="J154" s="3"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C155" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155">
         <v>9866015836</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="H155" s="2"/>
+        <v>691</v>
+      </c>
+      <c r="H155" s="3"/>
       <c r="I155" s="14" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="J155" s="3"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C156" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D156" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F156" s="13">
         <v>9347081915</v>
       </c>
       <c r="G156" t="s">
-        <v>678</v>
-      </c>
-      <c r="H156" t="s">
-        <v>677</v>
-      </c>
-      <c r="I156" t="s">
-        <v>679</v>
+        <v>672</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="I156" s="7" t="s">
+        <v>673</v>
       </c>
       <c r="J156" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C157" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D157" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F157" s="13">
         <v>9347081915</v>
       </c>
       <c r="G157" t="s">
-        <v>678</v>
-      </c>
-      <c r="H157" t="s">
-        <v>683</v>
-      </c>
-      <c r="I157" t="s">
-        <v>679</v>
+        <v>672</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>673</v>
       </c>
       <c r="J157"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C158" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D158" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F158" s="13">
         <v>9966552349</v>
       </c>
       <c r="G158" t="s">
-        <v>687</v>
-      </c>
-      <c r="H158" t="s">
-        <v>686</v>
-      </c>
-      <c r="I158" t="s">
-        <v>679</v>
+        <v>681</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="I158" s="7" t="s">
+        <v>673</v>
       </c>
       <c r="J158" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C159" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D159" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F159" s="13">
         <v>9966552349</v>
       </c>
       <c r="G159" t="s">
-        <v>687</v>
-      </c>
-      <c r="H159" t="s">
-        <v>690</v>
-      </c>
-      <c r="I159" t="s">
-        <v>679</v>
+        <v>681</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="I159" s="7" t="s">
+        <v>673</v>
       </c>
       <c r="J159" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C160" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D160" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F160" s="13">
         <v>9966552349</v>
       </c>
       <c r="G160" t="s">
-        <v>687</v>
-      </c>
-      <c r="H160" t="s">
-        <v>690</v>
-      </c>
-      <c r="I160" t="s">
-        <v>679</v>
+        <v>681</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="I160" s="7" t="s">
+        <v>673</v>
       </c>
       <c r="J160"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E161" s="2"/>
+      <c r="F161" s="11">
+        <v>7382662593</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="K161" s="2"/>
+    </row>
+    <row r="162" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="11">
+        <v>9848622487</v>
+      </c>
+      <c r="G162" s="2"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="J162" s="3"/>
+      <c r="K162" s="2"/>
+    </row>
+    <row r="163" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E163" s="2"/>
+      <c r="F163" s="11">
+        <v>7306824240</v>
+      </c>
+      <c r="G163" s="2"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="J163" s="3"/>
+      <c r="K163" s="2"/>
+    </row>
+    <row r="164" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="F164" s="11">
+        <v>9441284834</v>
+      </c>
+      <c r="G164" s="2"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="J164" s="3"/>
+      <c r="K164" s="2"/>
+    </row>
+    <row r="165" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="11">
+        <v>9492827299</v>
+      </c>
+      <c r="G165" s="2"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="J165" s="3"/>
+      <c r="K165" s="2"/>
+    </row>
+    <row r="166" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="11">
+        <v>8978937575</v>
+      </c>
+      <c r="G166" s="2"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="J166" s="3"/>
+      <c r="K166" s="2"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="J167" s="3"/>
+      <c r="K167" s="2"/>
+    </row>
+    <row r="168" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="11">
+        <v>7702324924</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="J168" s="3"/>
+      <c r="K168" s="2"/>
+    </row>
+    <row r="169" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E169" s="2"/>
+      <c r="F169" s="11">
+        <v>7989590340</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="J169" s="3"/>
+      <c r="K169" s="2"/>
+    </row>
+    <row r="170" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E170" s="2"/>
+      <c r="F170" s="11">
+        <v>9491055127</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="J170" s="3"/>
+      <c r="K170" s="2"/>
+    </row>
+    <row r="171" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>170</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E171" s="2"/>
+      <c r="F171" s="11">
+        <v>9703891045</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="J171" s="3"/>
+      <c r="K171" s="2"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E172" s="2"/>
+      <c r="F172" s="11">
+        <v>8008883366</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="J172" s="3"/>
+      <c r="K172" s="2"/>
+    </row>
+    <row r="173" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="11">
+        <v>9542463823</v>
+      </c>
+      <c r="G173" s="2"/>
+      <c r="H173" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="J173" s="3"/>
+      <c r="K173" s="2"/>
+    </row>
+    <row r="174" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E174" s="2"/>
+      <c r="F174" s="11">
+        <v>9885264250</v>
+      </c>
+      <c r="G174" s="2"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="J174" s="3"/>
+      <c r="K174" s="2"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>174</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E175" s="2"/>
+      <c r="F175" s="11">
+        <v>9441831333</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="J175" s="3"/>
+      <c r="K175" s="2"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E176" s="2"/>
+      <c r="F176" s="11">
+        <v>9884052050</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="J176" s="3"/>
+      <c r="K176" s="2"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E177" s="2"/>
+      <c r="F177" s="11">
+        <v>9885567081</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="J177" s="3"/>
+      <c r="K177" s="2"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="J178" s="3"/>
+      <c r="K178" s="2"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E179" s="2"/>
+      <c r="F179" s="11">
+        <v>9849275094</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="J179" s="3"/>
+      <c r="K179" s="2"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="11">
+        <v>9490937761</v>
+      </c>
+      <c r="G180" s="2"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="J180" s="3"/>
+      <c r="K180" s="2"/>
+    </row>
+    <row r="181" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E181" s="2"/>
+      <c r="F181" s="11">
+        <v>7396509893</v>
+      </c>
+      <c r="G181" s="2"/>
+      <c r="H181" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="J181" s="3"/>
+      <c r="K181" s="2"/>
+    </row>
+    <row r="182" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E182" s="2"/>
+      <c r="F182" s="11">
+        <v>9949477144</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="J182" s="3"/>
+      <c r="K182" s="2"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="F183" s="11">
+        <v>9849123448</v>
+      </c>
+      <c r="G183" s="2"/>
+      <c r="H183" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="J183" s="3"/>
+      <c r="K183" s="2"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E184" s="2"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="J184" s="3"/>
+      <c r="K184" s="2"/>
+    </row>
+    <row r="185" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E185" s="2"/>
+      <c r="F185" s="11">
+        <v>8008406644</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="J185" s="3"/>
+      <c r="K185" s="2"/>
+    </row>
+    <row r="186" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E186" s="2"/>
+      <c r="F186" s="11">
+        <v>9866583665</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="J186" s="3"/>
+      <c r="K186" s="2"/>
+    </row>
+    <row r="187" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <v>186</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="F187" s="11">
+        <v>9866889293</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="J187" s="3"/>
+      <c r="K187" s="2"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="J188" s="3"/>
+      <c r="K188" s="2"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="11">
+        <v>8247095927</v>
+      </c>
+      <c r="G189" s="2"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="J189" s="3"/>
+      <c r="K189" s="2"/>
+    </row>
+    <row r="190" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="11">
+        <v>9966029563</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="J190" s="3"/>
+      <c r="K190" s="2"/>
+    </row>
+    <row r="191" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="11">
+        <v>9393583450</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="J191" s="3"/>
+      <c r="K191" s="2"/>
+    </row>
+    <row r="192" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="11">
+        <v>9849611768</v>
+      </c>
+      <c r="G192" s="2"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="J192" s="3"/>
+      <c r="K192" s="2"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="11">
+        <v>9963959212</v>
+      </c>
+      <c r="G193" s="2"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="J193" s="3"/>
+      <c r="K193" s="2"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2">
+        <v>8639756060</v>
+      </c>
+      <c r="F194" s="11">
+        <v>9951164115</v>
+      </c>
+      <c r="G194" s="2"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="J194" s="3"/>
+      <c r="K194" s="2"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <v>194</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="11"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="J195" s="3"/>
+      <c r="K195" s="2"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>195</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="11">
+        <v>9703003944</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="J196" s="3"/>
+      <c r="K196" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7212,11 +8466,29 @@
     <hyperlink ref="I154" r:id="rId111" display="http://h.no/"/>
     <hyperlink ref="I155" r:id="rId112" display="http://h.no/"/>
     <hyperlink ref="G155" r:id="rId113" display="mailto:sricharan87@gmail.com"/>
+    <hyperlink ref="G161" r:id="rId114"/>
+    <hyperlink ref="G167" r:id="rId115"/>
+    <hyperlink ref="G168" r:id="rId116"/>
+    <hyperlink ref="G169" r:id="rId117"/>
+    <hyperlink ref="G170" r:id="rId118"/>
+    <hyperlink ref="G171" r:id="rId119"/>
+    <hyperlink ref="G172" r:id="rId120"/>
+    <hyperlink ref="G175" r:id="rId121"/>
+    <hyperlink ref="G176" r:id="rId122"/>
+    <hyperlink ref="G177" r:id="rId123"/>
+    <hyperlink ref="G179" r:id="rId124"/>
+    <hyperlink ref="G182" r:id="rId125"/>
+    <hyperlink ref="G185" r:id="rId126"/>
+    <hyperlink ref="G186" r:id="rId127"/>
+    <hyperlink ref="G187" r:id="rId128"/>
+    <hyperlink ref="G190" r:id="rId129"/>
+    <hyperlink ref="G191" r:id="rId130"/>
+    <hyperlink ref="G196" r:id="rId131"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId114"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId132"/>
   <tableParts count="1">
-    <tablePart r:id="rId115"/>
+    <tablePart r:id="rId133"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7227,7 +8499,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7239,7 +8511,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SourceFiles/Vikhanasa_Directory.xlsx
+++ b/SourceFiles/Vikhanasa_Directory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="820">
   <si>
     <t>Sno</t>
   </si>
@@ -2461,6 +2461,21 @@
   </si>
   <si>
     <t>Kothapet, Hyderabad</t>
+  </si>
+  <si>
+    <t>Prathibha Balaji</t>
+  </si>
+  <si>
+    <t>prathibha.balajimay4@gmail.com</t>
+  </si>
+  <si>
+    <t>Govardhanam Bhargavaram</t>
+  </si>
+  <si>
+    <t>Late Govardhanam Venkataramana Charyulu</t>
+  </si>
+  <si>
+    <t>bramgovardhana@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2632,8 +2647,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K196" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K196"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K198" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K198"/>
+  <sortState ref="A2:K198">
+    <sortCondition ref="A1:A198"/>
+  </sortState>
   <tableColumns count="11">
     <tableColumn id="1" name="Sno" dataDxfId="10"/>
     <tableColumn id="2" name="Name" dataDxfId="9"/>
@@ -2938,17 +2956,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K196"/>
+  <dimension ref="A1:K198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.21875" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" style="13" customWidth="1"/>
@@ -2959,7 +2977,7 @@
     <col min="11" max="11" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8350,6 +8368,52 @@
       </c>
       <c r="J196" s="3"/>
       <c r="K196" s="2"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>196</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="11">
+        <v>8123066772</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3"/>
+      <c r="K197" s="2"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E198" s="2"/>
+      <c r="F198" s="11">
+        <v>9989158590</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3"/>
+      <c r="K198" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8484,11 +8548,12 @@
     <hyperlink ref="G190" r:id="rId129"/>
     <hyperlink ref="G191" r:id="rId130"/>
     <hyperlink ref="G196" r:id="rId131"/>
+    <hyperlink ref="G197" r:id="rId132"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId132"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId133"/>
   <tableParts count="1">
-    <tablePart r:id="rId133"/>
+    <tablePart r:id="rId134"/>
   </tableParts>
 </worksheet>
 </file>
